--- a/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,19</t>
+          <t>3,56; 14,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 10,15</t>
+          <t>4,04; 10,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,47</t>
+          <t>4,76; 10,18</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 18,9</t>
+          <t>11,32; 18,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,19</t>
+          <t>7,56; 12,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,07</t>
+          <t>9,95; 14,12</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,49</t>
+          <t>7,16; 11,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,06</t>
+          <t>9,27; 13,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,81</t>
+          <t>8,73; 11,57</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,7</t>
+          <t>5,18; 9,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 46,68</t>
+          <t>8,0; 47,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 37,68</t>
+          <t>7,5; 33,71</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 12,11</t>
+          <t>7,85; 11,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 13,48</t>
+          <t>9,43; 13,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 12,06</t>
+          <t>9,24; 12,24</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,91</t>
+          <t>8,62; 10,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,4</t>
+          <t>9,95; 23,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,31</t>
+          <t>9,71; 16,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 14,03</t>
+          <t>3,54; 13,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,75</t>
+          <t>3,97; 10,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,18</t>
+          <t>4,59; 10,47</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 18,38</t>
+          <t>11,21; 18,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,13</t>
+          <t>7,75; 12,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,12</t>
+          <t>9,91; 14,07</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,49</t>
+          <t>7,27; 11,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,07</t>
+          <t>9,36; 13,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,73; 11,57</t>
+          <t>8,94; 11,81</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,59</t>
+          <t>5,17; 9,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 47,01</t>
+          <t>8,13; 46,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 33,71</t>
+          <t>7,57; 37,68</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 11,86</t>
+          <t>7,92; 12,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 13,64</t>
+          <t>9,38; 13,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 12,24</t>
+          <t>9,19; 12,06</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,62; 10,9</t>
+          <t>8,64; 10,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 23,47</t>
+          <t>9,88; 21,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,99</t>
+          <t>9,79; 17,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,19</t>
+          <t>10,34; 16,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 10,15</t>
+          <t>6,73; 10,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,47</t>
+          <t>8,91; 12,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>8,8%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 18,9</t>
+          <t>3,88; 10,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,19</t>
+          <t>9,01; 12,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 14,07</t>
+          <t>5,88; 10,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,49</t>
+          <t>5,01; 9,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 13,06</t>
+          <t>7,64; 61,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,81</t>
+          <t>7,25; 52,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,7</t>
+          <t>7,7; 11,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 46,68</t>
+          <t>8,15; 12,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 37,68</t>
+          <t>8,49; 11,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,92; 12,11</t>
+          <t>6,96; 10,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 13,48</t>
+          <t>9,2; 29,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 12,06</t>
+          <t>8,92; 22,48</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,72%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,81%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>8,64; 10,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,88; 21,4</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,79; 17,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 16,73</t>
+          <t>10,31; 16,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 10,61</t>
+          <t>6,67; 10,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,66</t>
+          <t>9,0; 12,65</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 10,01</t>
+          <t>3,85; 9,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 12,54</t>
+          <t>9,08; 12,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,41</t>
+          <t>5,7; 10,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,72</t>
+          <t>4,97; 9,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 61,91</t>
+          <t>7,51; 59,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 52,65</t>
+          <t>7,15; 45,4</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,74</t>
+          <t>7,66; 11,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,4</t>
+          <t>7,93; 12,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,36</t>
+          <t>8,53; 11,52</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 10,24</t>
+          <t>6,92; 10,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,2; 29,44</t>
+          <t>9,31; 32,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 22,48</t>
+          <t>8,86; 21,95</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83332</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62526</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>145858</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>65491; 105668</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48415; 76953</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>122402; 172149</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87476</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101650</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>189126</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45945; 118531</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>86822; 120963</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>122490; 223921</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48139</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>264983</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>313122</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35015; 65991</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70097; 551830</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>117103; 743652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>88011</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>112249</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>200260</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>70951; 109419</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>86807; 136248</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>172399; 232796</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>306958</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>541409</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>848367</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>239361; 350675</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>345188; 1214652</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>634823; 1573330</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>